--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/BAG_ZERO-E.FAN.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/BAG_ZERO-E.FAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Commerce.Finance.DB/src/main/resources/plugins/zero-extension-commerce-finance/modulat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7B589F-AD3C-864F-9F75-6B008A48E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA1AC9-E2C1-8A40-A098-CAD2EBB1AE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1140" windowWidth="37420" windowHeight="20540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>key</t>
   </si>
@@ -342,15 +342,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>入口菜单ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>entry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>entryId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -381,25 +373,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -407,7 +399,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -415,7 +407,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -526,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,7 +548,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -564,6 +556,23 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,10 +890,10 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:K19"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="55.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -903,33 +912,33 @@
     <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="21"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -957,14 +966,12 @@
       <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -992,14 +999,12 @@
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="J4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -1025,14 +1030,12 @@
       <c r="I5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="J5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="23"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1060,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
@@ -1175,10 +1178,10 @@
         <v>66</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
@@ -1191,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>50</v>
@@ -1209,7 +1212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1221,10 +1224,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
@@ -1237,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>50</v>
@@ -1255,7 +1258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>63</v>
       </c>
@@ -1267,10 +1270,10 @@
         <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
@@ -1283,10 +1286,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>50</v>
@@ -1301,7 +1304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>64</v>
       </c>
@@ -1313,10 +1316,10 @@
         <v>70</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="5">
         <v>1020</v>
@@ -1329,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>50</v>
@@ -1347,7 +1350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
@@ -1359,10 +1362,10 @@
         <v>71</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F19" s="5">
         <v>1025</v>
@@ -1375,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>50</v>
@@ -1396,9 +1399,10 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/BAG_ZERO-E.FAN.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/BAG_ZERO-E.FAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-finance/zero-exmodule-finance-domain/src/main/resources/plugins/zero-exmodule-finance/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA1AC9-E2C1-8A40-A098-CAD2EBB1AE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B074DA-C78C-3445-B118-A862993706E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="1140" windowWidth="37420" windowHeight="20540" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -346,10 +346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.fan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ZERO-E.FAN_SUBJECT</t>
   </si>
   <si>
@@ -366,6 +362,10 @@
   </si>
   <si>
     <t>CODE:config</t>
+  </si>
+  <si>
+    <t>zero.fms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,6 +550,12 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -562,17 +568,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,7 +885,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -926,17 +921,16 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
@@ -966,10 +960,10 @@
       <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
@@ -999,10 +993,10 @@
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
@@ -1031,9 +1025,8 @@
         <v>55</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="23"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1042,23 +1035,23 @@
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="3" t="s">
@@ -1178,10 +1171,10 @@
         <v>66</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
@@ -1194,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>50</v>
@@ -1224,10 +1217,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
@@ -1240,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>50</v>
@@ -1270,10 +1263,10 @@
         <v>69</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
@@ -1286,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>50</v>
@@ -1316,10 +1309,10 @@
         <v>70</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="5">
         <v>1020</v>
@@ -1332,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>50</v>
@@ -1362,10 +1355,10 @@
         <v>71</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F19" s="5">
         <v>1025</v>
@@ -1378,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>50</v>
